--- a/calculate_sga.xlsx
+++ b/calculate_sga.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-MPS-\Oracle DBA\DBA-Notepad++\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C762144-AF8F-4141-912D-08CE4905507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -71,7 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +85,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBEEF4"/>
+        <fgColor rgb="FFdbeef4"/>
       </patternFill>
     </fill>
   </fills>
@@ -134,35 +116,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,10 +158,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -214,71 +199,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -306,7 +291,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -329,11 +314,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -342,13 +327,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -358,7 +343,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -367,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -376,7 +361,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -384,10 +369,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -452,87 +437,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="15.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>19</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24">
+      <c r="A4" s="4">
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <f>A4*1024*1024*1024</f>
-        <v>20401094656</v>
       </c>
       <c r="C4" s="5">
         <f>A4*1024*1024</f>
-        <v>19922944</v>
       </c>
       <c r="D4" s="5">
         <f>A4*1024*1024/4</f>
-        <v>4980736</v>
       </c>
       <c r="E4" s="5">
         <f>A4*1024/2</f>
-        <v>9728</v>
       </c>
     </row>
   </sheetData>
@@ -540,6 +519,5 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/calculate_sga.xlsx
+++ b/calculate_sga.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPS\MPS Notepad\DBA-Notepad++\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FEB3D7-710D-4B1E-97BF-3C49F8586400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="20370" yWindow="-4785" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Calculate sga (SGA+1)</t>
   </si>
@@ -47,14 +66,28 @@
   </si>
   <si>
     <t>2MB</t>
+  </si>
+  <si>
+    <t>Calculate Process, Session, Transaction</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>Transactions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +108,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -85,11 +133,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdbeef4"/>
+        <fgColor rgb="FFDBEEF4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,42 +160,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -158,10 +225,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -199,71 +266,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -291,7 +358,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -314,11 +381,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -327,13 +394,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -343,7 +410,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -352,7 +419,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -361,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -369,10 +436,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -437,87 +504,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24">
-      <c r="A4" s="4">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8">
         <f>A4*1024*1024*1024</f>
-      </c>
-      <c r="C4" s="5">
+        <v>20401094656</v>
+      </c>
+      <c r="C4" s="8">
         <f>A4*1024*1024</f>
-      </c>
-      <c r="D4" s="5">
+        <v>19922944</v>
+      </c>
+      <c r="D4" s="8">
         <f>A4*1024*1024/4</f>
-      </c>
-      <c r="E4" s="5">
+        <v>4980736</v>
+      </c>
+      <c r="E4" s="8">
         <f>A4*1024/2</f>
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>300</v>
+      </c>
+      <c r="B8" s="5">
+        <f>A8</f>
+        <v>300</v>
+      </c>
+      <c r="C8" s="5">
+        <f>(A8*1.5)+22</f>
+        <v>472</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C8*1.1</f>
+        <v>519.20000000000005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/calculate_sga.xlsx
+++ b/calculate_sga.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPS\MPS Notepad\DBA-Notepad++\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FEB3D7-710D-4B1E-97BF-3C49F8586400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4785" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -86,8 +67,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,19 +91,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,7 +106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBEEF4"/>
+        <fgColor rgb="FFdbeef4"/>
       </patternFill>
     </fill>
   </fills>
@@ -161,60 +134,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -225,10 +195,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -266,71 +236,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,7 +328,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -381,11 +351,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -394,13 +364,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -410,7 +380,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -419,7 +389,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -428,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -436,10 +406,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -504,128 +474,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="15.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24">
+      <c r="A4" s="4">
         <v>19</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <f>A4*1024*1024*1024</f>
-        <v>20401094656</v>
-      </c>
-      <c r="C4" s="8">
+      </c>
+      <c r="C4" s="5">
         <f>A4*1024*1024</f>
-        <v>19922944</v>
-      </c>
-      <c r="D4" s="8">
+      </c>
+      <c r="D4" s="5">
         <f>A4*1024*1024/4</f>
-        <v>4980736</v>
-      </c>
-      <c r="E4" s="8">
+      </c>
+      <c r="E4" s="5">
         <f>A4*1024/2</f>
-        <v>9728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="E7" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
+      <c r="A8" s="4">
         <v>300</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>A8</f>
-        <v>300</v>
-      </c>
-      <c r="C8" s="5">
+      </c>
+      <c r="C8" s="4">
         <f>(A8*1.5)+22</f>
-        <v>472</v>
-      </c>
-      <c r="D8" s="5">
+      </c>
+      <c r="D8" s="4">
         <f>C8*1.1</f>
-        <v>519.20000000000005</v>
-      </c>
+      </c>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -633,6 +603,5 @@
     <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/calculate_sga.xlsx
+++ b/calculate_sga.xlsx
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -144,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,28 +158,25 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -484,11 +487,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="15.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -513,7 +516,7 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -530,33 +533,33 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>A4*1024*1024*1024</f>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>A4*1024*1024</f>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>A4*1024*1024/4</f>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>A4*1024/2</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
       <c r="A6" s="1" t="s">
@@ -565,7 +568,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
       <c r="A7" s="2" t="s">
@@ -580,22 +583,22 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
-      <c r="A8" s="4">
-        <v>300</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="3">
+        <v>400</v>
+      </c>
+      <c r="B8" s="3">
         <f>A8</f>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>(A8*1.5)+22</f>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>C8*1.1</f>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
